--- a/excel/fon_closeness_centrality.xlsx
+++ b/excel/fon_closeness_centrality.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2024291497975708</v>
+        <v>0.2849002849002849</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1879699248120301</v>
+        <v>0.2645502645502645</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1461988304093567</v>
+        <v>0.205761316872428</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1461988304093567</v>
+        <v>0.205761316872428</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1461988304093567</v>
+        <v>0.205761316872428</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1385041551246537</v>
+        <v>0.1949317738791423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1385041551246537</v>
+        <v>0.1949317738791423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1196172248803828</v>
+        <v>0.1683501683501683</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1196172248803828</v>
+        <v>0.1683501683501683</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1196172248803828</v>
+        <v>0.1683501683501683</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1096491228070175</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1096491228070175</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1096491228070175</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1096491228070175</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1096491228070175</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.09074410163339383</v>
+        <v>0.1277139208173691</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -795,174 +795,9 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.08223684210526315</v>
+        <v>0.1157407407407407</v>
       </c>
       <c r="C29" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Marina Jovanovic Milenkovic</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Marija Bogicevic Sretenovic</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Elena Milovanovic</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Dejan Stojimirovic</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Milos Zlatkovic</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Jelena Ljubenovic</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mina Marjanovic</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Bojan Marceta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Andela Pejanovic</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Sofija Prokic</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tatjana Stojanovic</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>FON_SI</t>
         </is>
